--- a/biology/Zoologie/Celmia_color/Celmia_color.xlsx
+++ b/biology/Zoologie/Celmia_color/Celmia_color.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Celmia color est un papillon de la famille des Lycaenidae, de la sous-famille des Theclinae et du genre Celmia.
 </t>
@@ -511,12 +523,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Celmia color a été décrit par Herbert Druce en 1907 sous le nom initial de Thecla color.
-Synonyme: Thecla wickhami Riley, 1919[1].
-Nom vernaculaire
-Celmia color se nomme Color Hairstreak en anglais[2].
+Synonyme: Thecla wickhami Riley, 1919.
 </t>
         </is>
       </c>
@@ -542,10 +554,49 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Nom vernaculaire</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Celmia color se nomme Color Hairstreak en anglais.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Celmia_color</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Celmia_color</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Celmia color est un petit papillon aux pattes et aux antennes cerclés de blanc et noir, avec une fine et longue queue à chaque aile postérieure.
 Sur le dessus les ailes sont marron avec aux ailes antérieures une plage turquoise métallisé le long du bord interne alors que les ailes postérieures sont turquoise métallisé largement bordées de marron.
@@ -554,32 +605,6 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Celmia_color</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Celmia_color</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
-    </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
@@ -601,17 +626,81 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Celmia_color</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Celmia_color</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Celmia color est présent au Pérou, au Brésil, en Guyana et en Guyane[1],[3],[4].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Celmia color est présent au Pérou, au Brésil, en Guyana et en Guyane.
 Sur les autres projets Wikimedia :
 Celmia color, sur Wikimedia CommonsCelmia color, sur Wikispecies
-Biotope
-Protection
-Pas de statut de protection particulier.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Celmia_color</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Celmia_color</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
